--- a/data/dummy_data.xlsx
+++ b/data/dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parisma/Library/CloudStorage/GoogleDrive-parisa.mapar@gmail.com/My Drive/FM_lab/Steven/ACT-ML-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627F80B-CB6F-EB48-A30C-9865FC8558AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D9673A-3011-EA48-9E1A-4B38D5372987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="6740" windowWidth="22860" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>LP</t>
   </si>
@@ -128,7 +128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -433,13 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -715,6 +718,254 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.215</v>
+      </c>
+      <c r="E12">
+        <v>1.02</v>
+      </c>
+      <c r="F12">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.99</v>
+      </c>
+      <c r="F13">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.18</v>
+      </c>
+      <c r="E14">
+        <v>0.97</v>
+      </c>
+      <c r="F14">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>1.25</v>
+      </c>
+      <c r="F15">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.89</v>
+      </c>
+      <c r="F16">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.03</v>
+      </c>
+      <c r="D17">
+        <v>0.24</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.2001</v>
+      </c>
+      <c r="E18">
+        <v>0.95</v>
+      </c>
+      <c r="F18">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+      <c r="D19">
+        <v>0.23</v>
+      </c>
+      <c r="E19">
+        <v>1.3</v>
+      </c>
+      <c r="F19">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.76</v>
+      </c>
+      <c r="F20">
+        <v>0.9758</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1.2345E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.19</v>
+      </c>
+      <c r="E21">
+        <v>1.2</v>
+      </c>
+      <c r="F21">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
